--- a/New_Dataset/model_evaluation_results_gp.xlsx
+++ b/New_Dataset/model_evaluation_results_gp.xlsx
@@ -1,43 +1,260 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fin_t\Documents\homework\data\proj\VetHelper\New_Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AA2D5-3A65-49F0-BD1B-3C2961741CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>interpretation and recommendation</t>
+  </si>
+  <si>
+    <t>Trimethoprim-sulfamethoxazole</t>
+  </si>
+  <si>
+    <t>Cefovecin</t>
+  </si>
+  <si>
+    <t>Marbofloxacin</t>
+  </si>
+  <si>
+    <t>Amikacin</t>
+  </si>
+  <si>
+    <t>Amoxicillin-clavulanic acid</t>
+  </si>
+  <si>
+    <t>Enrofloxacin</t>
+  </si>
+  <si>
+    <t>Cefalexin</t>
+  </si>
+  <si>
+    <t>Nitrofurantoin</t>
+  </si>
+  <si>
+    <t>Doxycycline</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Clindamycin</t>
+  </si>
+  <si>
+    <t>- 	แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
+- 	ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
+     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
+        1-2 สัปดาห์
+     o 	Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
+  </si>
+  <si>
+    <t>-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 เชื้อเป็น multidrug resistance ดื้อยาต้านจุลชีพตามระบบที่แนะนำให้ใช้ในการรักษาโรคผิวหนังทุกชนิด
+-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin</t>
+  </si>
+  <si>
+    <t>-	 แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o Cephalexin 25-30 mg/kg q12h PO for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
+        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก  
+        2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o	 Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท
+     o Clindamycin 5.5-11 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ใน
+        กรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o	 Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
+  </si>
+  <si>
+    <t>-	 ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
+        1-2 สัปดาห์ 
+     o 	Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
+     o Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
+  </si>
+  <si>
+    <t>- 	จากการทำ urine quantitative culture บ่งชี้ว่าเป็น UTI
+- 	ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
+        1-2 สัปดาห์ 
+     o 	Nitrofurantoin 5 mg/kg q8h PO PC for at least 10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 
+        สัปดาห์</t>
+  </si>
+  <si>
+    <t>-	 ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+    o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก
+        1-2 สัปดาห์
+     o Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 1-2 สัปดาห์</t>
+  </si>
+  <si>
+    <t>- 	แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่  
+     o Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์ 
+    o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก
+        1-2 สัปดาห์
+     o	 Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
+  </si>
+  <si>
+    <t>- 	การติดเชื้อในเลือดจัดเป็น medical emergency มีอันตรายและความเสี่ยงที่ทำให้เกิดการติดเชื้อทั่วร่างกาย จำเป็นต้องใช้ยาต้านจุลชีพตามระบบ แนะนำให้ใช้ยาฉีดมากกว่ายากิน ซึ่งยาที่แนะนำ ตามลำดับ ได้แก่
+     o 	Amoxicillin/clavulanic acid 15-25 mg/kg IV q8h (หรือ 25 mg/kg q8h PO AC ขึ้นกับความรุนแรงของอาการ) for at least 
+        7 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ใน
+        กรณีที่เป็นการติดเชื้อเรื้อรัง 
+     o 	Metronidazole 15 mg/kg IV (slow infusion) (หรือ PO PC ขึ้นกับความรุนแรงของอาการ) q12h for at least 7 days หรือให้
+        ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติด
+        เชื้อเรื้อรัง</t>
+  </si>
+  <si>
+    <t>-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
+     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
+        1-2 สัปดาห์
+     o 	Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
+  </si>
+  <si>
+    <t>- 	เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 เชื้อเป็น multidrug resistance ดื้อยาต้านจุลชีพตามระบบที่แนะนำให้ใช้ในการรักษาโรคผิวหนังทุกชนิด
+-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin</t>
+  </si>
+  <si>
+    <t>-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o 	Marbofloxacin 5.5-11 mg/kg q24h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน 
+        ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
+  </si>
+  <si>
+    <t>- 	เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Clindamycin 5.5-11 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 
+        สัปดาห์ 
+     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 1-2 สัปดาห์</t>
+  </si>
+  <si>
+    <t>- เชื้อนี้บทบาทเป็นเชื้อประจำถิ่น ปกติไม่มีบทบาทในการก่อโรคหรือโอกาสที่ทำให้เกิดการติดเชื้อแบบฉวยโอกาสน้อยมาก จึงอาจเกิดการปนเปื้อนมายังรอยโรคหรือตัวอย่างได้ แนะนำให้ทำการวินิจฉัยร่วมกับ cytologic examination พบการเพิ่มจำนวนของเซลล์อักเสบและแบคทีเรีย gram-positive cocci
+-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 ในกรณีที่ยืนยันว่าเป็นการติดเชื้อ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Amikacin 15 mg/kg q24h SC, IM for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
+        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง (ควร monitor ไตและภาวะแห้งน้ำของแมว ไม่ควรใช้ยานี้
+        หากแมวมีความผิดปกติของไตหรือเกิดภาวะแห้งน้ำ เนื่องจากจะทำให้เกิดความเป็นพิษต่อไตมากขึ้น)
+     o 	Gentamicin 6 mg/kg q24h SC, IM for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
+        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง (ควร monitor ไตและภาวะแห้งน้ำของแมว ไม่ควรใช้ยานี้
+        หากแมวมีความผิดปกติของไตหรือเกิดภาวะแห้งน้ำ เนื่องจากจะทำให้เกิดความเป็นพิษต่อไตมากขึ้น)</t>
+  </si>
+  <si>
+    <t>- 	เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 เชื้อเป็น multidrug resistance ดื้อยาต้านจุลชีพตามระบบที่แนะนำให้ใช้ในการรักษาโรคผิวหนังทุกชนิด
+- 	แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin</t>
+  </si>
+  <si>
+    <t>- 	ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่_x000D_     o	 Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
+        1-2 สัปดาห์ 
+     o 	Cephalexin 25-30 mg/kg q8h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
+     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for at least 14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และ
+        ให้ยาต่อไปอีก 1-2 สัปดาห์
+     o 	Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
+  </si>
+  <si>
+    <t>- เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o	 Amikacin 15 mg/kg q24h SC, IM for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
+        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง (ควร monitor ไตและภาวะแห้งน้ำของสุนัข ไม่ควรใช้ยา
+        นี้หากสุนัขมีความผิดปกติของไตหรือเกิดภาวะแห้งน้ำ เนื่องจากจะทำให้เกิดความเป็นพิษต่อไตมากขึ้น)</t>
+  </si>
+  <si>
+    <t>-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+- แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ได้แก่
+     o Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
+  </si>
+  <si>
+    <t>-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
+-	 แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o	 Clindamycin 5.5-11 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ใน
+        กรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
+  </si>
+  <si>
+    <t>-	 จากการทำ urine quantitative culture บ่งชี้ว่าเป็น UTI
+-	 ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก
+        1-2 สัปดาห์
+     o	 Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 1-2 สัปดาห์
+     o	 Cefovecin 8 mg/kg SC once</t>
+  </si>
+  <si>
+    <t>- 	แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
+-	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
+     o	 Cephalexin 25-30 mg/kg q12h PO for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
+        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
+        2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง  
+     o Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท
+     o	 Clindamycin 5.5-11 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ใน
+        กรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
+     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
+        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +263,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,91 +601,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interpretation and recommendation</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Trimethoprim-sulfamethoxazole</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cefovecin</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Marbofloxacin</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Amikacin</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Amoxicillin-clavulanic acid</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Enrofloxacin</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cefalexin</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Nitrofurantoin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Doxycycline</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Vancomycin</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Clindamycin</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>- 	แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
-- 	ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
-     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
-        1-2 สัปดาห์
-     o 	Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -539,14 +696,13 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 เชื้อเป็น multidrug resistance ดื้อยาต้านจุลชีพตามระบบที่แนะนำให้ใช้ในการรักษาโรคผิวหนังทุกชนิด
--	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin</t>
-        </is>
+      <c r="M2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -581,22 +737,13 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>-	 แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o Cephalexin 25-30 mg/kg q12h PO for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
-        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก  
-        2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o	 Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท
-     o Clindamycin 5.5-11 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ใน
-        กรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o	 Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
-        </is>
+      <c r="M3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -631,16 +778,13 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>-	 ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
-        1-2 สัปดาห์ 
-     o 	Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
-     o Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
-        </is>
+      <c r="M4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -675,17 +819,13 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>- 	จากการทำ urine quantitative culture บ่งชี้ว่าเป็น UTI
-- 	ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
-        1-2 สัปดาห์ 
-     o 	Nitrofurantoin 5 mg/kg q8h PO PC for at least 10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 
-        สัปดาห์</t>
-        </is>
+      <c r="M5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -720,16 +860,13 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>-	 ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-    o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก
-        1-2 สัปดาห์
-     o Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 1-2 สัปดาห์</t>
-        </is>
+      <c r="M6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -764,17 +901,13 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>- 	แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่  
-     o Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์ 
-    o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก
-        1-2 สัปดาห์
-     o	 Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
-        </is>
+      <c r="M7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -809,18 +942,13 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>- 	การติดเชื้อในเลือดจัดเป็น medical emergency มีอันตรายและความเสี่ยงที่ทำให้เกิดการติดเชื้อทั่วร่างกาย จำเป็นต้องใช้ยาต้านจุลชีพตามระบบ แนะนำให้ใช้ยาฉีดมากกว่ายากิน ซึ่งยาที่แนะนำ ตามลำดับ ได้แก่
-     o 	Amoxicillin/clavulanic acid 15-25 mg/kg IV q8h (หรือ 25 mg/kg q8h PO AC ขึ้นกับความรุนแรงของอาการ) for at least 
-        7 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ใน
-        กรณีที่เป็นการติดเชื้อเรื้อรัง 
-     o 	Metronidazole 15 mg/kg IV (slow infusion) (หรือ PO PC ขึ้นกับความรุนแรงของอาการ) q12h for at least 7 days หรือให้
-        ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติด
-        เชื้อเรื้อรัง</t>
-        </is>
+      <c r="M8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -855,17 +983,13 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Cephalexin 25-30 mg/kg q12h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
-     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
-        1-2 สัปดาห์
-     o 	Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
-        </is>
+      <c r="M9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -900,14 +1024,13 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>- 	เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 เชื้อเป็น multidrug resistance ดื้อยาต้านจุลชีพตามระบบที่แนะนำให้ใช้ในการรักษาโรคผิวหนังทุกชนิด
--	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin</t>
-        </is>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -942,17 +1065,13 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>-	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o 	Marbofloxacin 5.5-11 mg/kg q24h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน 
-        ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
-        </is>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -987,18 +1106,13 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>- 	เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Clindamycin 5.5-11 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 
-        สัปดาห์ 
-     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 1-2 สัปดาห์</t>
-        </is>
+      <c r="M12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -1033,20 +1147,13 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>- เชื้อนี้บทบาทเป็นเชื้อประจำถิ่น ปกติไม่มีบทบาทในการก่อโรคหรือโอกาสที่ทำให้เกิดการติดเชื้อแบบฉวยโอกาสน้อยมาก จึงอาจเกิดการปนเปื้อนมายังรอยโรคหรือตัวอย่างได้ แนะนำให้ทำการวินิจฉัยร่วมกับ cytologic examination พบการเพิ่มจำนวนของเซลล์อักเสบและแบคทีเรีย gram-positive cocci
--	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 ในกรณีที่ยืนยันว่าเป็นการติดเชื้อ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Amikacin 15 mg/kg q24h SC, IM for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
-        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง (ควร monitor ไตและภาวะแห้งน้ำของแมว ไม่ควรใช้ยานี้
-        หากแมวมีความผิดปกติของไตหรือเกิดภาวะแห้งน้ำ เนื่องจากจะทำให้เกิดความเป็นพิษต่อไตมากขึ้น)
-     o 	Gentamicin 6 mg/kg q24h SC, IM for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
-        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง (ควร monitor ไตและภาวะแห้งน้ำของแมว ไม่ควรใช้ยานี้
-        หากแมวมีความผิดปกติของไตหรือเกิดภาวะแห้งน้ำ เนื่องจากจะทำให้เกิดความเป็นพิษต่อไตมากขึ้น)</t>
-        </is>
+      <c r="M13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -1081,14 +1188,13 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>- 	เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 เชื้อเป็น multidrug resistance ดื้อยาต้านจุลชีพตามระบบที่แนะนำให้ใช้ในการรักษาโรคผิวหนังทุกชนิด
-- 	แนะนำให้ฆ่าเชื้อบริเวณรอยโรคด้วย antiseptics หรือแชมพูที่มี antiseptics เป็นส่วนประกอบ เช่น chlorhexidine ร่วมกับการใช้ยาต้านจุลชีพเฉพาะที่ ได้แก่ amikacin</t>
-        </is>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -1123,17 +1229,13 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>- 	ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่_x000D_     o	 Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
-        1-2 สัปดาห์ 
-     o 	Cephalexin 25-30 mg/kg q8h PO for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 1-2 สัปดาห์
-     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for at least 14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และ
-        ให้ยาต่อไปอีก 1-2 สัปดาห์
-     o 	Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท</t>
-        </is>
+      <c r="M15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -1168,19 +1270,13 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>- เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o	 Amikacin 15 mg/kg q24h SC, IM for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
-        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง (ควร monitor ไตและภาวะแห้งน้ำของสุนัข ไม่ควรใช้ยา
-        นี้หากสุนัขมีความผิดปกติของไตหรือเกิดภาวะแห้งน้ำ เนื่องจากจะทำให้เกิดความเป็นพิษต่อไตมากขึ้น)</t>
-        </is>
+      <c r="M16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -1215,16 +1311,13 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
-- แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ได้แก่
-     o Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
-        </is>
+      <c r="M17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -1259,18 +1352,13 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>-	 เชื้อเป็น MRS ไม่แนะนำให้ใช้ยาต้านจุลชีพกลุ่ม beta-lactams ในการรักษา เนื่องจากอาจให้ผลการรักษาที่ไม่แน่นอน
--	 แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o	 Clindamycin 5.5-11 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ใน
-        กรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
-        </is>
+      <c r="M18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -1305,18 +1393,13 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>-	 จากการทำ urine quantitative culture บ่งชี้ว่าเป็น UTI
--	 ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก
-        1-2 สัปดาห์
-     o	 Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 10-14 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 1-2 สัปดาห์
-     o	 Cefovecin 8 mg/kg SC once</t>
-        </is>
+      <c r="M19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -1351,22 +1434,13 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>- 	แนะนำให้ล้างทำความสะอาดบาดแผลด้วย wound irrigation solution  หรือ antiseptics ที่ได้ผลต่อเชื้อและทำลาย biofilms เช่น Prontosan® ร่วมกับการใช้ยาฆ่าเชื้อ เช่น silver alginate หรือยาต้านจุลชีพเฉพาะที่ เช่น amikacin
--	 ในกรณีที่มีการอักเสบติดเชื้อรุนแรง มีการติดเชื้อชั้นลึก หรือเสี่ยงต่อการติดเชื้อตามระบบ ยาต้านจุลชีพที่แนะนำ ตามลำดับ ได้แก่
-     o	 Cephalexin 25-30 mg/kg q12h PO for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ในกรณีที่
-        เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o 	Amoxicillin/clavulanic acid 25 mg/kg q8h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 
-        2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง  
-     o Cefovecin 8 mg/kg SC once อาจให้ซ้ำได้อีก 1 ครั้งหลังจากให้เข็มแรก 7-14 วัน หากอาการยังไม่หายสนิท
-     o	 Clindamycin 5.5-11 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยาต่อไปอีก 2-3 วัน ใน
-        กรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง
-     o 	Sulfamethoxazole/trimethoprim 30 mg/kg q12h PO AC for 7-10 days หรือให้ยาต่อเนื่องจนอาการหายสนิท และให้ยา
-        ต่อไปอีก 2-3 วัน ในกรณีที่เป็นการติดเชื้อฉับพลัน หรือ 1-2 สัปดาห์ ในกรณีที่เป็นการติดเชื้อเรื้อรัง</t>
-        </is>
+      <c r="M20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -1400,6 +1474,9 @@
       </c>
       <c r="L21" t="b">
         <v>0</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
